--- a/会议时间计划表.xlsx
+++ b/会议时间计划表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86135\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\张晓琳！！！\xiaolin_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D327F402-2962-4001-9F57-701EFD0AB8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAC589B-C5BC-4DB6-8166-4081BC0AF59F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="300" windowWidth="13035" windowHeight="13290" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="570" windowWidth="23310" windowHeight="15030" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ting Wu (2)" sheetId="31" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <sheet name="Xiong Xiao" sheetId="27" r:id="rId14"/>
     <sheet name="Ting Wu" sheetId="30" r:id="rId15"/>
     <sheet name="Wenliang Li" sheetId="33" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="34" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1538,6 +1537,13 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1574,13 +1580,6 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1879,13 +1878,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
@@ -2709,11 +2708,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="4" spans="1:5" s="39" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="40"/>
@@ -3098,13 +3097,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="82" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="81"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="26"/>
@@ -3399,13 +3398,13 @@
       <c r="E21" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
@@ -3682,13 +3681,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
@@ -4046,13 +4045,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
@@ -4408,13 +4407,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>255</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="54"/>
@@ -4775,11 +4774,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
       <c r="D1" s="72"/>
       <c r="E1" s="72"/>
     </row>
@@ -5001,22 +5000,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D8CB82-ECDC-432B-BA1E-B5F533475FBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5051,10 +5034,10 @@
       <c r="B1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C2" s="44" t="s">
@@ -6234,10 +6217,10 @@
       <c r="B1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C2" s="44" t="s">
@@ -7364,7 +7347,7 @@
       <c r="A4" s="45">
         <v>18</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="74" t="s">
         <v>270</v>
       </c>
       <c r="H4" s="48" t="str">
@@ -7376,7 +7359,7 @@
       <c r="A5" s="45">
         <v>18</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="75" t="s">
         <v>268</v>
       </c>
       <c r="H5" s="48" t="str">
@@ -7388,7 +7371,7 @@
       <c r="A6" s="45">
         <v>18</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="75" t="s">
         <v>269</v>
       </c>
       <c r="H6" s="48" t="str">
@@ -7400,7 +7383,7 @@
       <c r="A7" s="45">
         <v>18</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="75" t="s">
         <v>215</v>
       </c>
       <c r="H7" s="48" t="str">
@@ -7412,7 +7395,7 @@
       <c r="A8" s="45">
         <v>18</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="75" t="s">
         <v>216</v>
       </c>
       <c r="H8" s="48" t="str">
@@ -7424,7 +7407,7 @@
       <c r="A9" s="45">
         <v>18</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="75" t="s">
         <v>271</v>
       </c>
       <c r="H9" s="48" t="str">
@@ -7436,7 +7419,7 @@
       <c r="A10" s="45">
         <v>18</v>
       </c>
-      <c r="F10" s="87" t="s">
+      <c r="F10" s="75" t="s">
         <v>218</v>
       </c>
       <c r="H10" s="48" t="str">
@@ -7448,7 +7431,7 @@
       <c r="A11" s="45">
         <v>18</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="75" t="s">
         <v>175</v>
       </c>
       <c r="H11" s="48" t="str">
@@ -7460,7 +7443,7 @@
       <c r="A12" s="45">
         <v>18</v>
       </c>
-      <c r="F12" s="88"/>
+      <c r="F12" s="76"/>
       <c r="H12" s="48" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
@@ -7470,7 +7453,7 @@
       <c r="A13" s="45">
         <v>18</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="75" t="s">
         <v>272</v>
       </c>
       <c r="H13" s="48" t="str">
@@ -7482,7 +7465,7 @@
       <c r="A14" s="45">
         <v>18</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="75" t="s">
         <v>273</v>
       </c>
       <c r="H14" s="48" t="str">
@@ -7494,7 +7477,7 @@
       <c r="A15" s="45">
         <v>18</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="75" t="s">
         <v>274</v>
       </c>
       <c r="H15" s="48" t="str">
@@ -7506,7 +7489,7 @@
       <c r="A16" s="45">
         <v>18</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="75" t="s">
         <v>265</v>
       </c>
       <c r="H16" s="48" t="str">
@@ -7518,7 +7501,7 @@
       <c r="A17" s="45">
         <v>18</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="75" t="s">
         <v>266</v>
       </c>
       <c r="H17" s="48" t="str">
@@ -7530,7 +7513,7 @@
       <c r="A18" s="45">
         <v>18</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="75" t="s">
         <v>267</v>
       </c>
       <c r="H18" s="48" t="str">
